--- a/entradasimples.xlsx
+++ b/entradasimples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadud\Repos\StressAnalysisFEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Drive\INSPER\termoflu\StressAnalysisFEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E287B962-931A-43CC-A97C-6526596D6032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B78BB39-178F-4B53-820F-816C65F6892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15735" yWindow="1500" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,7 +510,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,40 +540,52 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B3" s="2">
         <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -585,7 +597,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,10 +625,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>210000000000</v>
@@ -627,12 +639,12 @@
       <c r="E2" s="1"/>
       <c r="F2" s="7">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -649,10 +661,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>210000000000</v>
@@ -662,40 +674,88 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -708,7 +768,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,30 +793,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-100</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -910,7 +964,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +994,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -964,6 +1018,12 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
